--- a/doc/协议/http集成协议.xlsx
+++ b/doc/协议/http集成协议.xlsx
@@ -86,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -108,12 +108,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +157,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,13 +178,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:F8"/>
+  <dimension ref="B3:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.66"/>
@@ -296,7 +290,11 @@
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
+      <c r="F8" s="0" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/doc/协议/http集成协议.xlsx
+++ b/doc/协议/http集成协议.xlsx
@@ -64,10 +64,10 @@
     <t xml:space="preserve">{ "setDataItem":{…. ….}}</t>
   </si>
   <si>
-    <t xml:space="preserve">setNumStrItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ "setNumStrItem":{…. ….}}</t>
+    <t xml:space="preserve">setCfgItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "setCfgItem":{…. ….}}</t>
   </si>
   <si>
     <t xml:space="preserve">PUT</t>
@@ -178,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:F1048576"/>
+  <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -226,75 +226,76 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>212</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>221</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>222</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>231</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/doc/协议/http集成协议.xlsx
+++ b/doc/协议/http集成协议.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t xml:space="preserve">方法</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t xml:space="preserve">{ "id":0 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getDataItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "getDataItem":{…. ….}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getCfgItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "getCfgItem":{…. ….}}</t>
   </si>
   <si>
     <t xml:space="preserve">download</t>
@@ -181,7 +193,7 @@
   <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -226,37 +238,69 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>213</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>221</v>
@@ -264,16 +308,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>222</v>
@@ -281,16 +325,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>231</v>

--- a/doc/协议/http集成协议.xlsx
+++ b/doc/协议/http集成协议.xlsx
@@ -104,7 +104,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -193,10 +192,10 @@
   <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.66"/>
@@ -204,7 +203,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.96"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>0</v>
       </c>
@@ -221,7 +220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
@@ -272,7 +271,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
@@ -289,7 +288,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>15</v>
       </c>
@@ -342,8 +341,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/协议/http集成协议.xlsx
+++ b/doc/协议/http集成协议.xlsx
@@ -192,7 +192,7 @@
   <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/协议/http集成协议.xlsx
+++ b/doc/协议/http集成协议.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t xml:space="preserve">方法</t>
   </si>
@@ -49,16 +49,28 @@
     <t xml:space="preserve">{ "id":0 }</t>
   </si>
   <si>
-    <t xml:space="preserve">getDataItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ "getDataItem":{…. ….}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getCfgItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ "getCfgItem":{…. ….}}</t>
+    <t xml:space="preserve">pduGetting</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{ "getDataItem":{…. ….}} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{ "getCfgItem":{…. ….}}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">download</t>
@@ -70,16 +82,28 @@
     <t xml:space="preserve">POST</t>
   </si>
   <si>
-    <t xml:space="preserve">setDataItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ "setDataItem":{…. ….}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setCfgItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ "setCfgItem":{…. ….}}</t>
+    <t xml:space="preserve">pduSetting</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{ "setDataItem":{…. ….}}  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{ "setCfgItem":{…. ….}}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">PUT</t>
@@ -98,12 +122,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -119,6 +144,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,17 +220,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:F10"/>
+  <dimension ref="B3:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="47.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.96"/>
   </cols>
   <sheetData>
@@ -237,7 +268,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
@@ -261,84 +292,52 @@
       <c r="C6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>231</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/doc/协议/http集成协议.xlsx
+++ b/doc/协议/http集成协议.xlsx
@@ -46,31 +46,13 @@
     <t xml:space="preserve">application/json</t>
   </si>
   <si>
-    <t xml:space="preserve">{ "id":0 }</t>
+    <t xml:space="preserve">{ "addr":0 }</t>
   </si>
   <si>
     <t xml:space="preserve">pduGetting</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{ "getDataItem":{…. ….}} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">{ "getCfgItem":{…. ….}}</t>
-    </r>
+    <t xml:space="preserve">{ "getDataItem":{…. ….}} { "getCfgItem":{…. ….}}</t>
   </si>
   <si>
     <t xml:space="preserve">download</t>
@@ -85,25 +67,7 @@
     <t xml:space="preserve">pduSetting</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{ "setDataItem":{…. ….}}  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">{ "setCfgItem":{…. ….}}</t>
-    </r>
+    <t xml:space="preserve">{ "setDataItem":{…. ….}}  { "setCfgItem":{…. ….}}</t>
   </si>
   <si>
     <t xml:space="preserve">PUT</t>
@@ -122,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -144,12 +108,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,7 +181,7 @@
   <dimension ref="B3:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/协议/http集成协议.xlsx
+++ b/doc/协议/http集成协议.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">pduGetting</t>
   </si>
   <si>
-    <t xml:space="preserve">{ "getDataItem":{…. ….}} { "getCfgItem":{…. ….}}</t>
+    <t xml:space="preserve">{ "pduDataGet":{…. ….}} { "pduCfgGet":{…. ….}}</t>
   </si>
   <si>
     <t xml:space="preserve">download</t>
@@ -67,7 +67,54 @@
     <t xml:space="preserve">pduSetting</t>
   </si>
   <si>
-    <t xml:space="preserve">{ "setDataItem":{…. ….}}  { "setCfgItem":{…. ….}}</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{ "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pduDataSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">":{…. ….}}  { "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pduCfgSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">":{…. ….}}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">PUT</t>
@@ -86,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -108,6 +155,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,8 +233,8 @@
   </sheetPr>
   <dimension ref="B3:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/协议/http集成协议.xlsx
+++ b/doc/协议/http集成协议.xlsx
@@ -83,6 +83,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">pduDataSet</t>
     </r>
@@ -102,6 +103,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">pduCfgSet</t>
     </r>
@@ -161,6 +163,7 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,7 +237,7 @@
   <dimension ref="B3:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -276,7 +279,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>211</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -293,7 +296,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>212</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,7 +313,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>214</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -327,7 +330,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>221</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,7 +347,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>231</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/doc/协议/http集成协议.xlsx
+++ b/doc/协议/http集成协议.xlsx
@@ -237,7 +237,7 @@
   <dimension ref="B3:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
